--- a/data/management/Management_information_KIE_2019.xlsx
+++ b/data/management/Management_information_KIE_2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B13C38-1F00-284F-9309-88E8CCF8352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05A5D9E-ED61-5F4C-9E14-D21FAC7BF7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="115">
   <si>
     <t xml:space="preserve">Correspondence </t>
   </si>
@@ -254,9 +254,6 @@
     <t>Hohenschulen, Achterwehr</t>
   </si>
   <si>
-    <t>KAS</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -296,12 +293,6 @@
     <t>Pseudogley/ Pseudogley-Parabraunerde/ Parabraunerde</t>
   </si>
   <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>Bittersalz</t>
-  </si>
-  <si>
     <t>Grubber, Kreiselegge</t>
   </si>
   <si>
@@ -390,6 +381,9 @@
   </si>
   <si>
     <t>08.08.2019</t>
+  </si>
+  <si>
+    <t>CAN</t>
   </si>
 </sst>
 </file>
@@ -907,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -973,7 +967,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -995,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1009,7 +1003,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1025,7 +1019,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1033,31 +1027,31 @@
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1084,7 +1078,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1"/>
     </row>
@@ -1093,7 +1087,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1"/>
     </row>
@@ -1102,7 +1096,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -1111,7 +1105,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C26" s="1"/>
     </row>
@@ -1120,7 +1114,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1"/>
     </row>
@@ -1129,7 +1123,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C28" s="1"/>
     </row>
@@ -1145,7 +1139,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="1"/>
     </row>
@@ -1192,7 +1186,7 @@
         <v>46</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C35" s="1"/>
     </row>
@@ -1201,7 +1195,7 @@
         <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="14">
         <v>41518</v>
@@ -1212,7 +1206,7 @@
         <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C37" s="14">
         <v>41518</v>
@@ -1223,7 +1217,7 @@
         <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="1"/>
     </row>
@@ -1232,7 +1226,7 @@
         <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C39" s="14">
         <v>43530</v>
@@ -1243,7 +1237,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C40" s="14">
         <v>43530</v>
@@ -1254,7 +1248,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C41" s="14">
         <v>43530</v>
@@ -1265,7 +1259,7 @@
         <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C42" s="14">
         <v>43530</v>
@@ -1276,7 +1270,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1"/>
     </row>
@@ -1306,7 +1300,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>6</v>
@@ -1318,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>6</v>
@@ -1344,7 +1338,7 @@
         <v>50</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>11</v>
@@ -1353,10 +1347,10 @@
         <v>43385</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>57</v>
@@ -1377,13 +1371,13 @@
         <v>30</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -1402,13 +1396,13 @@
       <c r="C49" s="11"/>
       <c r="D49" s="6"/>
       <c r="E49" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -1421,23 +1415,15 @@
       <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="11">
-        <v>43573</v>
-      </c>
-      <c r="D50" s="6">
-        <v>5</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>86</v>
-      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="13"/>
       <c r="F50" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -1451,20 +1437,14 @@
         <v>54</v>
       </c>
       <c r="B51" s="13"/>
-      <c r="C51" s="11">
-        <v>43621</v>
-      </c>
-      <c r="D51" s="6">
-        <v>5</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>86</v>
-      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="13"/>
       <c r="F51" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -1483,7 +1463,7 @@
         <v>16</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -1502,7 +1482,7 @@
         <v>17</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -1524,10 +1504,10 @@
         <v>43573</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -1547,10 +1527,10 @@
         <v>43594</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -1566,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>6</v>
@@ -1578,7 +1558,7 @@
         <v>5</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>6</v>
@@ -1592,7 +1572,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>7</v>
@@ -1604,7 +1584,7 @@
         <v>50</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>11</v>
@@ -1613,10 +1593,10 @@
         <v>43385</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J58" s="8" t="s">
         <v>57</v>
@@ -1625,7 +1605,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>8</v>
@@ -1637,13 +1617,13 @@
         <v>30</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
@@ -1654,7 +1634,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>9</v>
@@ -1662,13 +1642,13 @@
       <c r="C60" s="11"/>
       <c r="D60" s="6"/>
       <c r="E60" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
@@ -1679,25 +1659,17 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>105</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" s="11">
-        <v>43573</v>
-      </c>
-      <c r="D61" s="6">
-        <v>5</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>86</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="13"/>
       <c r="F61" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
@@ -1708,18 +1680,12 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B62" s="13"/>
-      <c r="C62" s="11">
-        <v>43621</v>
-      </c>
-      <c r="D62" s="6">
-        <v>5</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>86</v>
-      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="13"/>
       <c r="F62" s="7" t="s">
         <v>15</v>
       </c>
@@ -1727,17 +1693,17 @@
         <v>43573</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="11"/>
@@ -1750,17 +1716,17 @@
         <v>43594</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="11"/>
@@ -1773,17 +1739,17 @@
         <v>43621</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -1796,17 +1762,17 @@
         <v>43573</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -1819,10 +1785,10 @@
         <v>43594</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -1838,7 +1804,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>6</v>
@@ -1850,7 +1816,7 @@
         <v>5</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>6</v>
@@ -1876,7 +1842,7 @@
         <v>50</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>11</v>
@@ -1885,10 +1851,10 @@
         <v>43385</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J69" s="8" t="s">
         <v>57</v>
@@ -1909,13 +1875,13 @@
         <v>80</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -1938,13 +1904,13 @@
         <v>60</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
@@ -1957,23 +1923,15 @@
       <c r="A72" t="s">
         <v>61</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" s="11">
-        <v>43573</v>
-      </c>
-      <c r="D72" s="6">
-        <v>5</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>86</v>
-      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="13"/>
       <c r="F72" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
@@ -1987,20 +1945,14 @@
         <v>61</v>
       </c>
       <c r="B73" s="13"/>
-      <c r="C73" s="11">
-        <v>43621</v>
-      </c>
-      <c r="D73" s="6">
-        <v>5</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>86</v>
-      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="13"/>
       <c r="F73" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
@@ -2019,7 +1971,7 @@
         <v>16</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
@@ -2038,7 +1990,7 @@
         <v>17</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
@@ -2060,10 +2012,10 @@
         <v>43573</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
@@ -2083,10 +2035,10 @@
         <v>43594</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
@@ -2102,7 +2054,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>6</v>
@@ -2114,7 +2066,7 @@
         <v>5</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>6</v>
@@ -2140,7 +2092,7 @@
         <v>50</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>11</v>
@@ -2149,10 +2101,10 @@
         <v>43385</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>57</v>
@@ -2173,13 +2125,13 @@
         <v>80</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
@@ -2202,13 +2154,13 @@
         <v>60</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
@@ -2221,23 +2173,15 @@
       <c r="A83" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" s="11">
-        <v>43573</v>
-      </c>
-      <c r="D83" s="6">
-        <v>5</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>86</v>
-      </c>
+      <c r="B83" s="13"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="13"/>
       <c r="F83" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
@@ -2251,15 +2195,9 @@
         <v>66</v>
       </c>
       <c r="B84" s="13"/>
-      <c r="C84" s="11">
-        <v>43621</v>
-      </c>
-      <c r="D84" s="6">
-        <v>5</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>86</v>
-      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="13"/>
       <c r="F84" s="7" t="s">
         <v>15</v>
       </c>
@@ -2267,10 +2205,10 @@
         <v>43573</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
@@ -2290,10 +2228,10 @@
         <v>43594</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
@@ -2313,10 +2251,10 @@
         <v>43621</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
@@ -2336,10 +2274,10 @@
         <v>43573</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
@@ -2359,10 +2297,10 @@
         <v>43594</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>

--- a/data/management/Management_information_KIE_2019.xlsx
+++ b/data/management/Management_information_KIE_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05A5D9E-ED61-5F4C-9E14-D21FAC7BF7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CDBC27-7CE9-DF4E-A761-337C63B2AA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1148,7 +1148,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="15">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="C31" s="1"/>
     </row>
@@ -1157,7 +1157,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="15">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
       <c r="C32" s="1"/>
     </row>
@@ -1166,7 +1166,7 @@
         <v>44</v>
       </c>
       <c r="B33" s="15">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="C33" s="1"/>
     </row>
